--- a/data/phones.xlsx
+++ b/data/phones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/GitHub/Syntyvyyden-tekij-t/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anttitanskanen/Github/Syntyvyyden-tekij-t/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9007299-5D23-FE4A-BFB3-44AC3C7E9166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0098C6-4436-D941-8555-BE05D08B83B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1640" windowWidth="23040" windowHeight="11580" activeTab="2" xr2:uid="{4A025E16-3B4E-5A43-9B5A-8D83F04A6937}"/>
+    <workbookView xWindow="1520" yWindow="1640" windowWidth="23040" windowHeight="16540" activeTab="2" xr2:uid="{4A025E16-3B4E-5A43-9B5A-8D83F04A6937}"/>
   </bookViews>
   <sheets>
     <sheet name="alypuhelin" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,21 @@
     <sheet name="2017" sheetId="5" r:id="rId11"/>
     <sheet name="2011" sheetId="6" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5091,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>+E3-1</f>
+        <f t="shared" ref="E2:E9" si="0">+E3-1</f>
         <v>1989</v>
       </c>
       <c r="F2">
@@ -5106,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>+E4-1</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="F3">
@@ -5121,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>+E5-1</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="F4">
@@ -5136,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>+E6-1</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="F5">
@@ -5151,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>+E7-1</f>
+        <f t="shared" si="0"/>
         <v>1993</v>
       </c>
       <c r="F6">
@@ -5166,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>+E8-1</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="F7">
@@ -5182,7 +5193,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="E8">
-        <f>+E9-1</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="F8">
@@ -5198,7 +5209,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9">
-        <f>+E10-1</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="F9">
@@ -5210,7 +5221,7 @@
         <v>2004</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ref="B10:B16" si="0">MAX(0,B11+C10)</f>
+        <f t="shared" ref="B10:B16" si="1">MAX(0,B11+C10)</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -5228,7 +5239,7 @@
         <v>2005</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60000000000000142</v>
       </c>
       <c r="C11">
@@ -5246,7 +5257,7 @@
         <v>2006</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6000000000000014</v>
       </c>
       <c r="C12">
@@ -5264,7 +5275,7 @@
         <v>2007</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6000000000000014</v>
       </c>
       <c r="C13">
@@ -5282,7 +5293,7 @@
         <v>2008</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6000000000000014</v>
       </c>
       <c r="C14">
@@ -5300,7 +5311,7 @@
         <v>2009</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.600000000000001</v>
       </c>
       <c r="C15">
@@ -5318,7 +5329,7 @@
         <v>2010</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
       <c r="C16">
@@ -5476,11 +5487,11 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <f t="shared" ref="A26:A33" si="1">1+A25</f>
+        <f t="shared" ref="A26:A33" si="2">1+A25</f>
         <v>2020</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B33" si="2">MIN(B25+C26,100)</f>
+        <f t="shared" ref="B26:B33" si="3">MIN(B25+C26,100)</f>
         <v>83.6</v>
       </c>
       <c r="C26">
@@ -5495,11 +5506,11 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.6</v>
       </c>
       <c r="C27">
@@ -5514,11 +5525,11 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85.6</v>
       </c>
       <c r="C28">
@@ -5533,11 +5544,11 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.6</v>
       </c>
       <c r="C29">
@@ -5552,11 +5563,11 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.6</v>
       </c>
       <c r="C30">
@@ -5571,11 +5582,11 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.6</v>
       </c>
       <c r="C31">
@@ -5590,11 +5601,11 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89.6</v>
       </c>
       <c r="C32">
@@ -5610,18 +5621,18 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.6</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E47" si="3">1+E32</f>
+        <f t="shared" ref="E33:E47" si="4">1+E32</f>
         <v>2020</v>
       </c>
       <c r="F33">
@@ -5630,18 +5641,18 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <f t="shared" ref="A34:A40" si="4">1+A33</f>
+        <f t="shared" ref="A34:A40" si="5">1+A33</f>
         <v>2028</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B40" si="5">MIN(B33+C34,100)</f>
+        <f t="shared" ref="B34:B40" si="6">MIN(B33+C34,100)</f>
         <v>91.6</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2021</v>
       </c>
       <c r="F34">
@@ -5650,181 +5661,181 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
+        <f t="shared" si="5"/>
+        <v>2029</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>92.6</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>2022</v>
+      </c>
+      <c r="F35">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>2030</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>93.6</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <f t="shared" si="5"/>
+        <v>2031</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>94.6</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>2024</v>
+      </c>
+      <c r="F37">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <f t="shared" si="5"/>
+        <v>2032</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="6"/>
+        <v>95.6</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>2025</v>
+      </c>
+      <c r="F38">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <f t="shared" si="5"/>
+        <v>2033</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>96.6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>2026</v>
+      </c>
+      <c r="F39">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <f t="shared" si="5"/>
+        <v>2034</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>97.6</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>2027</v>
+      </c>
+      <c r="F40">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>2028</v>
+      </c>
+      <c r="F41">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42">
         <f t="shared" si="4"/>
         <v>2029</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="5"/>
+      <c r="F42">
         <v>92.6</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>2022</v>
-      </c>
-      <c r="F35">
-        <v>85.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43">
         <f t="shared" si="4"/>
         <v>2030</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="5"/>
+      <c r="F43">
         <v>93.6</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>2023</v>
-      </c>
-      <c r="F36">
-        <v>86.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44">
         <f t="shared" si="4"/>
         <v>2031</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="5"/>
+      <c r="F44">
         <v>94.6</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>2024</v>
-      </c>
-      <c r="F37">
-        <v>87.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45">
         <f t="shared" si="4"/>
         <v>2032</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="5"/>
+      <c r="F45">
         <v>95.6</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>2025</v>
-      </c>
-      <c r="F38">
-        <v>88.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46">
         <f t="shared" si="4"/>
         <v>2033</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="5"/>
-        <v>96.6</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>2026</v>
-      </c>
-      <c r="F39">
-        <v>89.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <f t="shared" si="4"/>
-        <v>2034</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="5"/>
-        <v>97.6</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>2027</v>
-      </c>
-      <c r="F40">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>2028</v>
-      </c>
-      <c r="F41">
-        <v>91.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>2029</v>
-      </c>
-      <c r="F42">
-        <v>92.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>2030</v>
-      </c>
-      <c r="F43">
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>2031</v>
-      </c>
-      <c r="F44">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>2032</v>
-      </c>
-      <c r="F45">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46">
-        <f t="shared" si="3"/>
-        <v>2033</v>
-      </c>
       <c r="F46">
         <v>96.6</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="E47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2034</v>
       </c>
       <c r="F47">
@@ -7204,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5C6FD4-2AAF-F64B-AE3F-5266C6CD8AAA}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D47" sqref="A1:D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7229,7 +7240,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <f>+A3-1</f>
+        <f t="shared" ref="A2:A9" si="0">+A3-1</f>
         <v>1989</v>
       </c>
       <c r="B2">
@@ -7244,7 +7255,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <f>+A4-1</f>
+        <f t="shared" si="0"/>
         <v>1990</v>
       </c>
       <c r="B3">
@@ -7259,7 +7270,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <f>+A5-1</f>
+        <f t="shared" si="0"/>
         <v>1991</v>
       </c>
       <c r="B4">
@@ -7274,7 +7285,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <f>+A6-1</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="B5">
@@ -7289,7 +7300,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <f>+A7-1</f>
+        <f t="shared" si="0"/>
         <v>1993</v>
       </c>
       <c r="B6">
@@ -7304,7 +7315,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <f>+A8-1</f>
+        <f t="shared" si="0"/>
         <v>1994</v>
       </c>
       <c r="B7">
@@ -7319,7 +7330,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <f>+A9-1</f>
+        <f t="shared" si="0"/>
         <v>1995</v>
       </c>
       <c r="B8">
@@ -7334,7 +7345,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f>+A10-1</f>
+        <f t="shared" si="0"/>
         <v>1996</v>
       </c>
       <c r="B9">
@@ -7383,11 +7394,11 @@
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <f t="shared" ref="C12:C17" si="0">C$24*E12</f>
+        <f t="shared" ref="C12:C17" si="1">C$24*E12</f>
         <v>0</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" ref="D12:D17" si="1">E12*D$24</f>
+        <f t="shared" ref="D12:D17" si="2">E12*D$24</f>
         <v>0</v>
       </c>
       <c r="E12">
@@ -7402,11 +7413,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10062500000000001</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6875000000000009E-2</v>
       </c>
       <c r="E13">
@@ -7422,11 +7433,11 @@
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20125000000000001</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11375000000000002</v>
       </c>
       <c r="E14">
@@ -7442,11 +7453,11 @@
         <v>0</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40250000000000002</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22750000000000004</v>
       </c>
       <c r="E15">
@@ -7462,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80500000000000005</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.45500000000000007</v>
       </c>
       <c r="E16">
@@ -7482,11 +7493,11 @@
         <v>0</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.61</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91000000000000014</v>
       </c>
       <c r="E17">
@@ -7502,11 +7513,11 @@
         <v>0.60000000000000142</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:C22" si="2">C$24*E18</f>
+        <f t="shared" ref="C18:C22" si="3">C$24*E18</f>
         <v>3.22</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" ref="D18:D22" si="3">E18*D$24</f>
+        <f t="shared" ref="D18:D22" si="4">E18*D$24</f>
         <v>1.8200000000000003</v>
       </c>
       <c r="E18">
@@ -7525,11 +7536,11 @@
         <v>1.6000000000000014</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.0599999999999996</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.86</v>
       </c>
       <c r="E19">
@@ -7548,11 +7559,11 @@
         <v>3.6000000000000014</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2799999999999994</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.68</v>
       </c>
       <c r="E20">
@@ -7571,11 +7582,11 @@
         <v>6.6000000000000014</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="E21">
@@ -7594,11 +7605,11 @@
         <v>11.600000000000001</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.48</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="E22">
@@ -7738,7 +7749,7 @@
         <v>81.099999999999994</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" ref="C31:C42" si="4">$E31*C30</f>
+        <f t="shared" ref="C31:C42" si="5">$E31*C30</f>
         <v>59.85</v>
       </c>
       <c r="D31" s="10">
@@ -7759,11 +7770,11 @@
         <v>82.6</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.842500000000001</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" ref="D32:D42" si="5">$E32*D31</f>
+        <f t="shared" ref="D32:D42" si="6">$E32*D31</f>
         <v>45.202500000000008</v>
       </c>
       <c r="E32">
@@ -7773,18 +7784,18 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <f t="shared" ref="A33:A47" si="6">1+A32</f>
+        <f t="shared" ref="A33:A47" si="7">1+A32</f>
         <v>2020</v>
       </c>
       <c r="B33">
         <v>83.6</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.356200000000001</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.010600000000011</v>
       </c>
       <c r="E33">
@@ -7793,18 +7804,18 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2021</v>
       </c>
       <c r="B34">
         <v>84.6</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.970448000000005</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.891024000000016</v>
       </c>
       <c r="E34">
@@ -7813,18 +7824,18 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
       <c r="B35">
         <v>85.6</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70.009561440000013</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.357754720000017</v>
       </c>
       <c r="E35">
@@ -7833,18 +7844,18 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2023</v>
       </c>
       <c r="B36">
         <v>86.6</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.109848283200009</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.868487361600017</v>
       </c>
       <c r="E36">
@@ -7853,18 +7864,18 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2024</v>
       </c>
       <c r="B37">
         <v>87.6</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.552045248864005</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.905857108832016</v>
       </c>
       <c r="E37">
@@ -7873,18 +7884,18 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2025</v>
       </c>
       <c r="B38">
         <v>88.6</v>
       </c>
       <c r="C38" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.023086153841291</v>
       </c>
       <c r="D38" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.963974251008658</v>
       </c>
       <c r="E38">
@@ -7893,18 +7904,18 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2026</v>
       </c>
       <c r="B39">
         <v>89.6</v>
       </c>
       <c r="C39" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.523547876918116</v>
       </c>
       <c r="D39" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.043253736028831</v>
       </c>
       <c r="E39">
@@ -7913,18 +7924,18 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2027</v>
       </c>
       <c r="B40">
         <v>90.6</v>
       </c>
       <c r="C40" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.288783355687301</v>
       </c>
       <c r="D40" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.593686273389118</v>
       </c>
       <c r="E40">
@@ -7933,18 +7944,18 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2028</v>
       </c>
       <c r="B41">
         <v>91.6</v>
       </c>
       <c r="C41" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.06167118924418</v>
       </c>
       <c r="D41" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.149623136123012</v>
       </c>
       <c r="E41">
@@ -7953,18 +7964,18 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2029</v>
       </c>
       <c r="B42">
         <v>92.6</v>
       </c>
       <c r="C42" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.842287901136629</v>
       </c>
       <c r="D42" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.711119367484244</v>
       </c>
       <c r="E42">
@@ -7973,18 +7984,18 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2030</v>
       </c>
       <c r="B43">
         <v>93.6</v>
       </c>
       <c r="C43" s="10">
-        <f t="shared" ref="C38:C43" si="7">C42</f>
+        <f t="shared" ref="C43" si="8">C42</f>
         <v>78.842287901136629</v>
       </c>
       <c r="D43" s="10">
-        <f t="shared" ref="D41:D43" si="8">D42</f>
+        <f t="shared" ref="D43" si="9">D42</f>
         <v>56.711119367484244</v>
       </c>
       <c r="E43">
@@ -7993,18 +8004,18 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2031</v>
       </c>
       <c r="B44">
         <v>94.6</v>
       </c>
       <c r="C44" s="10">
-        <f t="shared" ref="C44:C47" si="9">C43</f>
+        <f t="shared" ref="C44:C47" si="10">C43</f>
         <v>78.842287901136629</v>
       </c>
       <c r="D44" s="10">
-        <f t="shared" ref="D44:D47" si="10">D43</f>
+        <f t="shared" ref="D44:D47" si="11">D43</f>
         <v>56.711119367484244</v>
       </c>
       <c r="E44">
@@ -8013,18 +8024,18 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2032</v>
       </c>
       <c r="B45">
         <v>95.6</v>
       </c>
       <c r="C45" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>78.842287901136629</v>
       </c>
       <c r="D45" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.711119367484244</v>
       </c>
       <c r="E45">
@@ -8033,18 +8044,18 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2033</v>
       </c>
       <c r="B46">
         <v>96.6</v>
       </c>
       <c r="C46" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>78.842287901136629</v>
       </c>
       <c r="D46" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.711119367484244</v>
       </c>
       <c r="E46">
@@ -8053,18 +8064,18 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2034</v>
       </c>
       <c r="B47">
         <v>97.6</v>
       </c>
       <c r="C47" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>78.842287901136629</v>
       </c>
       <c r="D47" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>56.711119367484244</v>
       </c>
       <c r="E47">
